--- a/Git CMD and uses.xlsx
+++ b/Git CMD and uses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Git CLI Learning\Git-Command-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2C18CB-E058-42C3-B8C8-2DD7FCAD675E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CF833-2D10-4B7D-9E69-9EB73DE9C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB47D2B2-801E-4986-9936-77E4039F7632}"/>
   </bookViews>
@@ -33,10 +33,59 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Basic Setup</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command </t>
+  </si>
+  <si>
+    <t>Purose</t>
+  </si>
+  <si>
+    <t>Set username</t>
+  </si>
+  <si>
+    <t>git config --global user.name "Your Name"</t>
+  </si>
+  <si>
+    <t>Sets your username for commits.</t>
+  </si>
+  <si>
+    <t>Set email</t>
+  </si>
+  <si>
+    <t>git config --global user.email "you@example.com"</t>
+  </si>
+  <si>
+    <t>Associates your email with commits.</t>
+  </si>
+  <si>
+    <t>Check configuration</t>
+  </si>
+  <si>
+    <t>git config --list</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +430,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D28C3-1834-4EBD-8445-7E7173979C2E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Git CMD and uses.xlsx
+++ b/Git CMD and uses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Git CLI Learning\Git-Command-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CF833-2D10-4B7D-9E69-9EB73DE9C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91684587-3896-4F58-8214-C500902D3A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB47D2B2-801E-4986-9936-77E4039F7632}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Basic Setup</t>
   </si>
@@ -70,13 +70,224 @@
   </si>
   <si>
     <t>git config --list</t>
+  </si>
+  <si>
+    <t>Repository Management</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>Initialize a repository</t>
+  </si>
+  <si>
+    <t>Creates a new Git repository in the current folder.</t>
+  </si>
+  <si>
+    <t>Clone a repository</t>
+  </si>
+  <si>
+    <t>git clone &lt;repo_url&gt;</t>
+  </si>
+  <si>
+    <t>Copies a remote repository locally.</t>
+  </si>
+  <si>
+    <t>Staging &amp; Committing</t>
+  </si>
+  <si>
+    <t>Check status</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Shows changes (staged, unstaged, untracked).</t>
+  </si>
+  <si>
+    <t>Add files to staging</t>
+  </si>
+  <si>
+    <t>git add &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>git add .         # add all files</t>
+  </si>
+  <si>
+    <t>Moves file into the staging area.</t>
+  </si>
+  <si>
+    <t>Moves all files into the staging area.</t>
+  </si>
+  <si>
+    <t>Commit changes</t>
+  </si>
+  <si>
+    <t>git commit -m "Your commit message"</t>
+  </si>
+  <si>
+    <t>Saves staged changes with a message.</t>
+  </si>
+  <si>
+    <t>Branching &amp; Merging</t>
+  </si>
+  <si>
+    <t>List branches</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>Create new branch</t>
+  </si>
+  <si>
+    <t>Shows all branches.</t>
+  </si>
+  <si>
+    <t>git branch &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>Switch branch</t>
+  </si>
+  <si>
+    <t>git checkout &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>git switch &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>in newer versions</t>
+  </si>
+  <si>
+    <t>Create &amp; switch</t>
+  </si>
+  <si>
+    <t>git checkout -b &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>Merge branch</t>
+  </si>
+  <si>
+    <t>git merge &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>Merges a branch into the current one.</t>
+  </si>
+  <si>
+    <t>Delete a Local Branch</t>
+  </si>
+  <si>
+    <t>git branch -d &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>git branch -D &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deletes a local branch </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only if it has been merged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into the current branch.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Force delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the branch (even if not merged).</t>
+    </r>
+  </si>
+  <si>
+    <t>Remote Repositories</t>
+  </si>
+  <si>
+    <t>Add remote</t>
+  </si>
+  <si>
+    <t>git remote add origin &lt;repo_url&gt;</t>
+  </si>
+  <si>
+    <t>Connects local repo to remote.</t>
+  </si>
+  <si>
+    <t>View remotes</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>Push changes</t>
+  </si>
+  <si>
+    <t>git push origin &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>Sends commits to remote.</t>
+  </si>
+  <si>
+    <t>Pull changes</t>
+  </si>
+  <si>
+    <t>git pull origin &lt;branch_name&gt;</t>
+  </si>
+  <si>
+    <t>Fetches + merges updates from remote.</t>
+  </si>
+  <si>
+    <t>Fetch (without merge)</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>Downloads updates but doesn’t merge.</t>
+  </si>
+  <si>
+    <t>Undoing Changes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +297,22 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,13 +336,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,66 +722,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D28C3-1834-4EBD-8445-7E7173979C2E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.36328125" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>3</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Git CMD and uses.xlsx
+++ b/Git CMD and uses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Git CLI Learning\Git-Command-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91684587-3896-4F58-8214-C500902D3A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E14C0E-7DE4-4C9D-B2D5-39B5BCE9512C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB47D2B2-801E-4986-9936-77E4039F7632}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Basic Setup</t>
   </si>
@@ -281,6 +281,57 @@
   </si>
   <si>
     <t>Undoing Changes</t>
+  </si>
+  <si>
+    <t>Unstage a file</t>
+  </si>
+  <si>
+    <t>git reset &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>Discard changes</t>
+  </si>
+  <si>
+    <t>git checkout -- &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>Amend last commit</t>
+  </si>
+  <si>
+    <t>git commit --amend -m "New message"</t>
+  </si>
+  <si>
+    <t>Reset to a commit</t>
+  </si>
+  <si>
+    <t>git reset --hard &lt;commit_id&gt;</t>
+  </si>
+  <si>
+    <t>Logs &amp; History</t>
+  </si>
+  <si>
+    <t>View commit history</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>One-line history</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>Show changes</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>Show commit details</t>
+  </si>
+  <si>
+    <t>git show &lt;commit_id&gt;</t>
   </si>
 </sst>
 </file>
@@ -320,15 +371,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -352,8 +409,236 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -364,48 +649,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,57 +1056,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D28C3-1834-4EBD-8445-7E7173979C2E}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.36328125" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -780,315 +1114,426 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="13">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+    <row r="13" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="18">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>2</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>3</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13">
+      <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="A24" s="18">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="22">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
+        <v>1</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="22">
+        <v>4</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="18">
+        <v>1</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="B17:B18"/>
@@ -1096,12 +1541,8 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>